--- a/data/trans_orig/P32C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5574</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1873</v>
+        <v>1897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11988</v>
+        <v>12628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03813985757126748</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01281540600456483</v>
+        <v>0.01297692522937579</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08202465086982913</v>
+        <v>0.08640810009571376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6384</v>
+        <v>4039</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01345175626627394</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08687959183829924</v>
+        <v>0.0549750389973373</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>6562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2738</v>
+        <v>1962</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13956</v>
+        <v>13350</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02988043284276364</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01246849779000861</v>
+        <v>0.008931499091260953</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06354616048193454</v>
+        <v>0.06078422243161052</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>140575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>134161</v>
+        <v>133521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144276</v>
+        <v>144252</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9618601424287325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9179753491301712</v>
+        <v>0.9135918999042871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9871845939954352</v>
+        <v>0.9870230747706242</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -836,7 +836,7 @@
         <v>72488</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>67092</v>
+        <v>69437</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>73476</v>
@@ -845,7 +845,7 @@
         <v>0.9865482437337261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9131204081616976</v>
+        <v>0.9450249610026626</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>213063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>205669</v>
+        <v>206275</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216887</v>
+        <v>217663</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9701195671572364</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9364538395180656</v>
+        <v>0.9392157775683896</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9875315022099914</v>
+        <v>0.9910685009087391</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6019</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2145</v>
+        <v>2096</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12001</v>
+        <v>12562</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02630461156629494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009373106797275117</v>
+        <v>0.009161373584388927</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05244783306963308</v>
+        <v>0.05490121852036988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>6019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2092</v>
+        <v>2046</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12480</v>
+        <v>11404</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01995883600388374</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006937526190660142</v>
+        <v>0.006782944196296335</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04138370570511695</v>
+        <v>0.03781473076685472</v>
       </c>
     </row>
     <row r="8">
@@ -1024,19 +1024,19 @@
         <v>222798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216816</v>
+        <v>216255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>226672</v>
+        <v>226721</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9736953884337051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9475521669303668</v>
+        <v>0.9450987814796306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9906268932027249</v>
+        <v>0.990838626415611</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -1058,19 +1058,19 @@
         <v>295549</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>289088</v>
+        <v>290164</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>299476</v>
+        <v>299522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9800411639961163</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9586162942948832</v>
+        <v>0.9621852692331452</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9930624738093399</v>
+        <v>0.9932170558037037</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4934</v>
+        <v>4709</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004842339907443141</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02544334065702414</v>
+        <v>0.02428275373788415</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4257</v>
+        <v>4217</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003343165120177982</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01515528327727224</v>
+        <v>0.01501038547024727</v>
       </c>
     </row>
     <row r="11">
@@ -1225,7 +1225,7 @@
         <v>193001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>189006</v>
+        <v>189231</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>193940</v>
@@ -1234,7 +1234,7 @@
         <v>0.9951576600925569</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9745566593429742</v>
+        <v>0.9757172462621158</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>279970</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>276652</v>
+        <v>276692</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>280909</v>
@@ -1268,7 +1268,7 @@
         <v>0.996656834879822</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.984844716722727</v>
+        <v>0.984989614529752</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1363,19 +1363,19 @@
         <v>5903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1950</v>
+        <v>1995</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12843</v>
+        <v>14450</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02481535452241627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008195455687921929</v>
+        <v>0.008387089096500376</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05398443219425553</v>
+        <v>0.06074102482637069</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7220</v>
+        <v>8534</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01113293947885695</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05514306958844421</v>
+        <v>0.06517920576496812</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1405,19 +1405,19 @@
         <v>7361</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2924</v>
+        <v>2933</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15642</v>
+        <v>16536</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01995829123863766</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007927683583876688</v>
+        <v>0.007951006490024358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04241061172036111</v>
+        <v>0.04483493770887905</v>
       </c>
     </row>
     <row r="14">
@@ -1434,19 +1434,19 @@
         <v>231992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>225052</v>
+        <v>223445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235945</v>
+        <v>235900</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9751846454775838</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9460155678057448</v>
+        <v>0.9392589751736292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9918045443120781</v>
+        <v>0.9916129109034997</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1455,7 +1455,7 @@
         <v>129468</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>123706</v>
+        <v>122392</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>130926</v>
@@ -1464,7 +1464,7 @@
         <v>0.988867060521143</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9448569304115557</v>
+        <v>0.9348207942350318</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1476,19 +1476,19 @@
         <v>361461</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>353180</v>
+        <v>352286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>365898</v>
+        <v>365889</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9800417087613623</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9575893882796385</v>
+        <v>0.9551650622911203</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9920723164161233</v>
+        <v>0.9920489935099757</v>
       </c>
     </row>
     <row r="15">
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4623</v>
+        <v>4628</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009239868398853122</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04770938414503432</v>
+        <v>0.04776059530045665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8201</v>
+        <v>8530</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03505293952571783</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1733906876547879</v>
+        <v>0.180359860112922</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8424</v>
+        <v>9137</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01770669713874713</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05842131633194196</v>
+        <v>0.06336260304441392</v>
       </c>
     </row>
     <row r="17">
@@ -1651,7 +1651,7 @@
         <v>96003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92275</v>
+        <v>92270</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>96898</v>
@@ -1660,7 +1660,7 @@
         <v>0.9907601316011468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9522906158549657</v>
+        <v>0.9522394046995434</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>45638</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39095</v>
+        <v>38766</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>47296</v>
@@ -1681,7 +1681,7 @@
         <v>0.9649470604742821</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8266093123452121</v>
+        <v>0.8196401398870765</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>141641</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>135770</v>
+        <v>135057</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>144194</v>
@@ -1702,7 +1702,7 @@
         <v>0.9822933028612528</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9415786836680582</v>
+        <v>0.9366373969555861</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7003</v>
+        <v>6025</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009839247036338145</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0360445080882107</v>
+        <v>0.03100877283017529</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4177</v>
+        <v>5149</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009195993517266682</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03736551319819476</v>
+        <v>0.04605948380828756</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1842,16 +1842,16 @@
         <v>875</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7870</v>
+        <v>8996</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009604314879766963</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002859642737595375</v>
+        <v>0.002858339554394211</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0257118404953001</v>
+        <v>0.02939070257129913</v>
       </c>
     </row>
     <row r="20">
@@ -1868,7 +1868,7 @@
         <v>192372</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>187281</v>
+        <v>188259</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>194284</v>
@@ -1877,7 +1877,7 @@
         <v>0.9901607529636619</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9639554919117901</v>
+        <v>0.9689912271698247</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>110755</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>107606</v>
+        <v>106634</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>111783</v>
@@ -1898,7 +1898,7 @@
         <v>0.9908040064827334</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9626344868018052</v>
+        <v>0.9539405161917125</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>303127</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>298197</v>
+        <v>297071</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>305192</v>
@@ -1919,10 +1919,10 @@
         <v>0.990395685120233</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9742881595046998</v>
+        <v>0.9706092974287011</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9971403572624047</v>
+        <v>0.9971416604456058</v>
       </c>
     </row>
     <row r="21">
@@ -2014,19 +2014,19 @@
         <v>7066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3433</v>
+        <v>2700</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14765</v>
+        <v>13618</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02444525048549747</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01187719242103343</v>
+        <v>0.009341975981471422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05108168597557152</v>
+        <v>0.0471133716855682</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         <v>7066</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2798</v>
+        <v>2678</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15249</v>
+        <v>14191</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01680372523283246</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006654732011873102</v>
+        <v>0.006369650349478801</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03626535582931601</v>
+        <v>0.03374857462644165</v>
       </c>
     </row>
     <row r="23">
@@ -2077,19 +2077,19 @@
         <v>281981</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>274282</v>
+        <v>275429</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>285614</v>
+        <v>286347</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9755547495145025</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9489183140244284</v>
+        <v>0.9528866283144317</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9881228075789665</v>
+        <v>0.9906580240185285</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>130</v>
@@ -2111,19 +2111,19 @@
         <v>413426</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>405243</v>
+        <v>406301</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>417694</v>
+        <v>417814</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9831962747671675</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9637346441706831</v>
+        <v>0.9662514253735585</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9933452679881266</v>
+        <v>0.9936303496505212</v>
       </c>
     </row>
     <row r="24">
@@ -2215,19 +2215,19 @@
         <v>6954</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3261</v>
+        <v>3306</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13577</v>
+        <v>13118</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01410852209559528</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006615383543060414</v>
+        <v>0.006708001150425311</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02754641128194771</v>
+        <v>0.02661459405718012</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2236,19 +2236,19 @@
         <v>3048</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8218</v>
+        <v>8293</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01270497344119137</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004174111410769793</v>
+        <v>0.004186505125779841</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03425004824942361</v>
+        <v>0.03456133498526293</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2257,19 +2257,19 @@
         <v>10002</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5310</v>
+        <v>5306</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17476</v>
+        <v>17911</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01364897900086246</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007246528107837274</v>
+        <v>0.00724082268082047</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02384800097247735</v>
+        <v>0.02444072982563748</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>485934</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>479311</v>
+        <v>479770</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>489627</v>
+        <v>489582</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9858914779044047</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9724535887180523</v>
+        <v>0.97338540594282</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9933846164569397</v>
+        <v>0.9932919988495746</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>226</v>
@@ -2307,19 +2307,19 @@
         <v>236890</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>231720</v>
+        <v>231645</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>238936</v>
+        <v>238933</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9872950265588086</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9657499517505764</v>
+        <v>0.965438665014737</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9958258885892303</v>
+        <v>0.9958134948742201</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>701</v>
@@ -2328,19 +2328,19 @@
         <v>722824</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>715350</v>
+        <v>714915</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>727516</v>
+        <v>727520</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9863510209991375</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9761519990275226</v>
+        <v>0.9755592701743626</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9927534718921623</v>
+        <v>0.9927591773191795</v>
       </c>
     </row>
     <row r="27">
@@ -2432,19 +2432,19 @@
         <v>35262</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>24095</v>
+        <v>24476</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48903</v>
+        <v>48368</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01875736408598966</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01281693896424134</v>
+        <v>0.01301971826147105</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02601311303635077</v>
+        <v>0.02572882220392149</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2453,19 +2453,19 @@
         <v>8180</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009144158666681085</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>42</v>
@@ -2474,19 +2474,19 @@
         <v>43443</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30971</v>
+        <v>32308</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>57702</v>
+        <v>59383</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01565777280650212</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01116283748078772</v>
+        <v>0.01164475649040785</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02079714728170491</v>
+        <v>0.02140319273544139</v>
       </c>
     </row>
     <row r="29">
@@ -2503,19 +2503,19 @@
         <v>1844656</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1831015</v>
+        <v>1831550</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1855823</v>
+        <v>1855442</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9812426359140104</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9739868869636493</v>
+        <v>0.9742711777960786</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.987183061035759</v>
+        <v>0.9869802817385293</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>867</v>
@@ -2524,19 +2524,19 @@
         <v>886404</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>878008</v>
+        <v>878097</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>891065</v>
+        <v>891093</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9908558413333189</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9814703937619041</v>
+        <v>0.981570301982169</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9960667693606793</v>
+        <v>0.9960978638085977</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2677</v>
@@ -2545,19 +2545,19 @@
         <v>2731060</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2716801</v>
+        <v>2715120</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2743532</v>
+        <v>2742195</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9843422271934978</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9792028527182949</v>
+        <v>0.9785968072645586</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9888371625192122</v>
+        <v>0.9883552435095921</v>
       </c>
     </row>
     <row r="30">
@@ -2893,19 +2893,19 @@
         <v>11537</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5996</v>
+        <v>6589</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20126</v>
+        <v>20184</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06580422063519439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03419987723433784</v>
+        <v>0.03758235470501577</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1147930083390951</v>
+        <v>0.11512555842221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6060</v>
+        <v>5170</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009225357305096833</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05524892289129716</v>
+        <v>0.04713435051111101</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2935,19 +2935,19 @@
         <v>12549</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6762</v>
+        <v>6986</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21429</v>
+        <v>20356</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04402923801298284</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.023723576490801</v>
+        <v>0.0245109863857872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07518544801826298</v>
+        <v>0.07142174212974876</v>
       </c>
     </row>
     <row r="5">
@@ -2964,19 +2964,19 @@
         <v>163788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155199</v>
+        <v>155141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169329</v>
+        <v>168736</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9341957793648056</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8852069916609049</v>
+        <v>0.8848744415777899</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9658001227656622</v>
+        <v>0.9624176452949842</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -2985,7 +2985,7 @@
         <v>108680</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103632</v>
+        <v>104522</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>109692</v>
@@ -2994,7 +2994,7 @@
         <v>0.9907746426949031</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9447510771087028</v>
+        <v>0.952865649488889</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3006,19 +3006,19 @@
         <v>272468</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>263588</v>
+        <v>264661</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>278255</v>
+        <v>278031</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9559707619870171</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.924814551981737</v>
+        <v>0.9285782578702507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9762764235091991</v>
+        <v>0.9754890136142128</v>
       </c>
     </row>
     <row r="6">
@@ -3110,19 +3110,19 @@
         <v>4991</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11008</v>
+        <v>11403</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01613869862496589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005735784354583729</v>
+        <v>0.005767675452046598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03559701064313595</v>
+        <v>0.03687752753847388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3144,19 +3144,19 @@
         <v>4991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12728</v>
+        <v>11091</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01088208907822669</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003916988123170969</v>
+        <v>0.00392424634225164</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02775480544221214</v>
+        <v>0.02418458881723495</v>
       </c>
     </row>
     <row r="8">
@@ -3173,19 +3173,19 @@
         <v>304235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>298218</v>
+        <v>297823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>307452</v>
+        <v>307442</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9838613013750341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9644029893568636</v>
+        <v>0.9631224724615259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9942642156454162</v>
+        <v>0.9942323245479534</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>137</v>
@@ -3207,19 +3207,19 @@
         <v>453607</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>445870</v>
+        <v>447507</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>456802</v>
+        <v>456798</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9891179109217733</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9722451945577875</v>
+        <v>0.9758154111827649</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.996083011876829</v>
+        <v>0.9960757536577483</v>
       </c>
     </row>
     <row r="9">
@@ -3480,19 +3480,19 @@
         <v>3966</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9946</v>
+        <v>8910</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02123138410700824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005370406002370366</v>
+        <v>0.005354714319201026</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05324284378611365</v>
+        <v>0.0476987445487693</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3514,19 +3514,19 @@
         <v>3966</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9514</v>
+        <v>9733</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0144671497940624</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003685697370078926</v>
+        <v>0.00364242793895552</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03470576924986159</v>
+        <v>0.03550146459257131</v>
       </c>
     </row>
     <row r="14">
@@ -3543,19 +3543,19 @@
         <v>182839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>176859</v>
+        <v>177895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>185802</v>
+        <v>185805</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9787686158929918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9467571562138863</v>
+        <v>0.9523012554512308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9946295939976296</v>
+        <v>0.994645285680799</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -3577,19 +3577,19 @@
         <v>270181</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>264633</v>
+        <v>264414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>273137</v>
+        <v>273148</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9855328502059376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.965294230750139</v>
+        <v>0.9644985354074288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.996314302629921</v>
+        <v>0.9963575720610446</v>
       </c>
     </row>
     <row r="15">
@@ -3681,19 +3681,19 @@
         <v>3094</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8309</v>
+        <v>8464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02413481319937236</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007072139854852801</v>
+        <v>0.007106250752345822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06480874610479796</v>
+        <v>0.06601804425931104</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>3094</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8823</v>
+        <v>8583</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01697195022203385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004975249354758363</v>
+        <v>0.005004921125762408</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04839562130990576</v>
+        <v>0.04707481880117827</v>
       </c>
     </row>
     <row r="17">
@@ -3744,19 +3744,19 @@
         <v>125114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>119899</v>
+        <v>119744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127301</v>
+        <v>127297</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9758651868006276</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9351912538952021</v>
+        <v>0.9339819557406888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9929278601451472</v>
+        <v>0.9928937492476542</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -3778,19 +3778,19 @@
         <v>179223</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>173494</v>
+        <v>173734</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>181410</v>
+        <v>181405</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9830280497779662</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9516043786900938</v>
+        <v>0.9529251811988212</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9950247506452417</v>
+        <v>0.9949950788742375</v>
       </c>
     </row>
     <row r="18">
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4859</v>
+        <v>5704</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00568969275919909</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02623434454626236</v>
+        <v>0.03080064259521935</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5292</v>
+        <v>5338</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003771360353419229</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01894068002992329</v>
+        <v>0.0191050304177735</v>
       </c>
     </row>
     <row r="20">
@@ -3945,7 +3945,7 @@
         <v>184152</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>180347</v>
+        <v>179502</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>185206</v>
@@ -3954,7 +3954,7 @@
         <v>0.9943103072408009</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9737656554537374</v>
+        <v>0.96919935740478</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>278358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>274120</v>
+        <v>274074</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>279412</v>
@@ -3988,7 +3988,7 @@
         <v>0.9962286396465808</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9810593199700767</v>
+        <v>0.9808949695822264</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -4083,19 +4083,19 @@
         <v>8624</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3986</v>
+        <v>4453</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16411</v>
+        <v>16210</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02192536501367224</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01013524253033685</v>
+        <v>0.01132170769796667</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04172356766667738</v>
+        <v>0.04121322266583689</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5101</v>
+        <v>5999</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004777294494473114</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0243288582206778</v>
+        <v>0.02861141756180519</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -4125,19 +4125,19 @@
         <v>9625</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5391</v>
+        <v>4778</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17735</v>
+        <v>17096</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01596289453302626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008939644398882502</v>
+        <v>0.007924577673288337</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0294121630986482</v>
+        <v>0.02835159274497141</v>
       </c>
     </row>
     <row r="23">
@@ -4154,19 +4154,19 @@
         <v>384703</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>376916</v>
+        <v>377117</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>389341</v>
+        <v>388874</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9780746349863277</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9582764323333227</v>
+        <v>0.9587867773341632</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9898647574696632</v>
+        <v>0.9886782923020333</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>190</v>
@@ -4175,7 +4175,7 @@
         <v>208660</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>204561</v>
+        <v>203663</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>209662</v>
@@ -4184,7 +4184,7 @@
         <v>0.9952227055055269</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9756711417793222</v>
+        <v>0.9713885824381948</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -4196,19 +4196,19 @@
         <v>593364</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>585254</v>
+        <v>585893</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>597598</v>
+        <v>598211</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9840371054669738</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.970587836901352</v>
+        <v>0.9716484072550285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9910603556011175</v>
+        <v>0.9920754223267116</v>
       </c>
     </row>
     <row r="24">
@@ -4300,19 +4300,19 @@
         <v>7654</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16488</v>
+        <v>17599</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01683205716416241</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007114408777594687</v>
+        <v>0.007120441994976414</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03625736789947457</v>
+        <v>0.03870223738412042</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5082</v>
+        <v>6155</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004766262872876318</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02364647708908354</v>
+        <v>0.02864069944398037</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -4342,19 +4342,19 @@
         <v>8679</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18538</v>
+        <v>18944</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01295972493978235</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004968635392101525</v>
+        <v>0.004964571875637359</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02768282104658141</v>
+        <v>0.02828993131643724</v>
       </c>
     </row>
     <row r="26">
@@ -4371,19 +4371,19 @@
         <v>447083</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>438249</v>
+        <v>437138</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>451502</v>
+        <v>451499</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9831679428358376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9637426321005254</v>
+        <v>0.9612977626158795</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9928855912224053</v>
+        <v>0.9928795580050236</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>196</v>
@@ -4392,7 +4392,7 @@
         <v>213891</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>209833</v>
+        <v>208760</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>214915</v>
@@ -4401,7 +4401,7 @@
         <v>0.9952337371271237</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9763535229109166</v>
+        <v>0.9713593005560195</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -4413,19 +4413,19 @@
         <v>660973</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>651114</v>
+        <v>650708</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>666325</v>
+        <v>666327</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9870402750602176</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9723171789534186</v>
+        <v>0.9717100686835629</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9950313646078984</v>
+        <v>0.9950354281243626</v>
       </c>
     </row>
     <row r="27">
@@ -4517,19 +4517,19 @@
         <v>40920</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28832</v>
+        <v>29276</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55439</v>
+        <v>57648</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02013536155298443</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0141874989351376</v>
+        <v>0.01440559607124159</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02727992250659002</v>
+        <v>0.02836668477726434</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -4538,19 +4538,19 @@
         <v>3038</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8157</v>
+        <v>8976</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002919519331120639</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0009630792345362535</v>
+        <v>0.0009595856740596809</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.007838732907150991</v>
+        <v>0.008626124392514744</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>43</v>
@@ -4559,19 +4559,19 @@
         <v>43958</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>31946</v>
+        <v>31955</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>59102</v>
+        <v>58380</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01430549215731938</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01039647863444479</v>
+        <v>0.01039946988470924</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01923393796227092</v>
+        <v>0.01899899703076095</v>
       </c>
     </row>
     <row r="29">
@@ -4588,19 +4588,19 @@
         <v>1991315</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1976796</v>
+        <v>1974587</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2003403</v>
+        <v>2002959</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9798646384470155</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9727200774934102</v>
+        <v>0.9716333152227358</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9858125010648626</v>
+        <v>0.9855944039287586</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>953</v>
@@ -4609,19 +4609,19 @@
         <v>1037511</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1032392</v>
+        <v>1031573</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1039547</v>
+        <v>1039551</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9970804806688793</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.992161267092849</v>
+        <v>0.9913738756074865</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9990369207654638</v>
+        <v>0.9990404143259403</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2824</v>
@@ -4630,19 +4630,19 @@
         <v>3028827</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3013683</v>
+        <v>3014405</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3040839</v>
+        <v>3040830</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9856945078426806</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9807660620377292</v>
+        <v>0.9810010029692391</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9896035213655553</v>
+        <v>0.9896005301152908</v>
       </c>
     </row>
     <row r="30">
@@ -4978,19 +4978,19 @@
         <v>8097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3239</v>
+        <v>3550</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14775</v>
+        <v>15401</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04531906860583203</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01813042595410735</v>
+        <v>0.01986888124360034</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08269531537558346</v>
+        <v>0.08619442221014895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6530</v>
+        <v>6510</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01926411317945035</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06207828341332785</v>
+        <v>0.06188933039463201</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -5020,19 +5020,19 @@
         <v>10123</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4953</v>
+        <v>4616</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18728</v>
+        <v>17430</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03566443161093736</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01745025601865455</v>
+        <v>0.01626243395152036</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06597757543258334</v>
+        <v>0.06140490214990149</v>
       </c>
     </row>
     <row r="5">
@@ -5049,19 +5049,19 @@
         <v>170575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>163897</v>
+        <v>163271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>175433</v>
+        <v>175122</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.954680931394168</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9173046846244173</v>
+        <v>0.9138055777898512</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9818695740458926</v>
+        <v>0.9801311187564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -5070,7 +5070,7 @@
         <v>103156</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>98652</v>
+        <v>98672</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>105182</v>
@@ -5079,7 +5079,7 @@
         <v>0.9807358868205497</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9379217165866721</v>
+        <v>0.9381106696053688</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -5091,19 +5091,19 @@
         <v>273731</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>265126</v>
+        <v>266424</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>278901</v>
+        <v>279238</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9643355683890626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9340224245674171</v>
+        <v>0.9385950978500988</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9825497439813455</v>
+        <v>0.9837375660484796</v>
       </c>
     </row>
     <row r="6">
@@ -5195,19 +5195,19 @@
         <v>7458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3193</v>
+        <v>3204</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13913</v>
+        <v>14421</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02800042242408492</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01198877186844153</v>
+        <v>0.01202941791229752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05223030102836974</v>
+        <v>0.0541378754761475</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -5229,19 +5229,19 @@
         <v>7458</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3206</v>
+        <v>3159</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14832</v>
+        <v>14768</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02028719480872311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008720344883631395</v>
+        <v>0.008592475389363459</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04034440473496742</v>
+        <v>0.04016903955090613</v>
       </c>
     </row>
     <row r="8">
@@ -5258,19 +5258,19 @@
         <v>258911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>252456</v>
+        <v>251948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>263176</v>
+        <v>263165</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.971999577575915</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9477696989716302</v>
+        <v>0.945862124523852</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9880112281315584</v>
+        <v>0.9879705820877025</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>96</v>
@@ -5292,19 +5292,19 @@
         <v>360185</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>352811</v>
+        <v>352875</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>364437</v>
+        <v>364484</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9797128051912769</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9596555952650327</v>
+        <v>0.9598309604490936</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9912796551163687</v>
+        <v>0.9914075246106365</v>
       </c>
     </row>
     <row r="9">
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5592</v>
+        <v>6632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009102609308269043</v>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02774888381341622</v>
+        <v>0.03290596852351663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5659</v>
+        <v>4976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008139644970457842</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04620759710626984</v>
+        <v>0.04062687946639372</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -5438,19 +5438,19 @@
         <v>2831</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7623</v>
+        <v>7841</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008738602891974851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002665554846161024</v>
+        <v>0.002645557834688033</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02352694451262938</v>
+        <v>0.02420034798585249</v>
       </c>
     </row>
     <row r="11">
@@ -5467,7 +5467,7 @@
         <v>199698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>195940</v>
+        <v>194900</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>201532</v>
@@ -5476,7 +5476,7 @@
         <v>0.990897390691731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9722511161865839</v>
+        <v>0.967094031476483</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5488,7 +5488,7 @@
         <v>121481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116819</v>
+        <v>117502</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>122478</v>
@@ -5497,7 +5497,7 @@
         <v>0.9918603550295422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9537924028937301</v>
+        <v>0.9593731205336063</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5509,19 +5509,19 @@
         <v>321179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>316387</v>
+        <v>316169</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>323146</v>
+        <v>323153</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9912613971080252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9764730554873707</v>
+        <v>0.9757996520141476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.997334445153839</v>
+        <v>0.997354442165312</v>
       </c>
     </row>
     <row r="12">
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5021</v>
+        <v>5419</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005368280960296482</v>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02666875347250206</v>
+        <v>0.02877871452366217</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5615</v>
+        <v>4521</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003458197649962678</v>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0192102545382533</v>
+        <v>0.01546729305414119</v>
       </c>
     </row>
     <row r="20">
@@ -6014,7 +6014,7 @@
         <v>187275</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>183265</v>
+        <v>182867</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>188286</v>
@@ -6023,7 +6023,7 @@
         <v>0.9946317190397035</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9733312465274979</v>
+        <v>0.971221285476339</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
         <v>291272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>286668</v>
+        <v>287762</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>292283</v>
@@ -6057,7 +6057,7 @@
         <v>0.9965418023500373</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9807897454617465</v>
+        <v>0.9845327069458587</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -6152,19 +6152,19 @@
         <v>9415</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4777</v>
+        <v>5132</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16744</v>
+        <v>17095</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0246006042173651</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01248213376054977</v>
+        <v>0.01340938232322963</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04374795972882184</v>
+        <v>0.04466656942404914</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5490</v>
+        <v>5022</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003865184164534658</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02109961808844567</v>
+        <v>0.01929852116642534</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -6194,19 +6194,19 @@
         <v>10421</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5136</v>
+        <v>5169</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19276</v>
+        <v>18765</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01620861805666089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007988571916299335</v>
+        <v>0.008039834278791434</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02998120721889585</v>
+        <v>0.02918671922987046</v>
       </c>
     </row>
     <row r="23">
@@ -6223,19 +6223,19 @@
         <v>373315</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>365986</v>
+        <v>365635</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>377953</v>
+        <v>377598</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9753993957826349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9562520402711782</v>
+        <v>0.9553334305759509</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9875178662394503</v>
+        <v>0.9865906176767704</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>243</v>
@@ -6244,7 +6244,7 @@
         <v>259202</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>254718</v>
+        <v>255186</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>260208</v>
@@ -6253,7 +6253,7 @@
         <v>0.9961348158354654</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9789003819115546</v>
+        <v>0.9807014788335746</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -6265,19 +6265,19 @@
         <v>632517</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>623662</v>
+        <v>624173</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>637802</v>
+        <v>637769</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9837913819433391</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9700187927811041</v>
+        <v>0.9708132807701287</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9920114280837007</v>
+        <v>0.9919601657212085</v>
       </c>
     </row>
     <row r="24">
@@ -6369,19 +6369,19 @@
         <v>4147</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10262</v>
+        <v>10564</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009323908592250938</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002533231385458819</v>
+        <v>0.002542897785440657</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0230720596221962</v>
+        <v>0.02375056359608542</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7667</v>
+        <v>7108</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008647362868012893</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03040093303942942</v>
+        <v>0.02818386437299041</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -6411,19 +6411,19 @@
         <v>6328</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2209</v>
+        <v>2257</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12949</v>
+        <v>13236</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009079096851564184</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003168857370420816</v>
+        <v>0.00323836542408088</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01857901645246805</v>
+        <v>0.01899100041533495</v>
       </c>
     </row>
     <row r="26">
@@ -6440,19 +6440,19 @@
         <v>440626</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>434511</v>
+        <v>434209</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>443646</v>
+        <v>443642</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.990676091407749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9769279403778037</v>
+        <v>0.9762494364039139</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9974667686145412</v>
+        <v>0.9974571022145593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>230</v>
@@ -6461,7 +6461,7 @@
         <v>250025</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>244539</v>
+        <v>245098</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>252206</v>
@@ -6470,7 +6470,7 @@
         <v>0.9913526371319871</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9695990669605701</v>
+        <v>0.9718161356270081</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -6482,19 +6482,19 @@
         <v>690651</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>684030</v>
+        <v>683743</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>694770</v>
+        <v>694722</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9909209031484358</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9814209835475323</v>
+        <v>0.9810089995846651</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9968311426295793</v>
+        <v>0.9967616345759192</v>
       </c>
     </row>
     <row r="27">
@@ -6586,19 +6586,19 @@
         <v>31963</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21496</v>
+        <v>21771</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43982</v>
+        <v>43884</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01613304823384628</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0108497081337066</v>
+        <v>0.01098864439370814</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0221994370134335</v>
+        <v>0.02214979907232317</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -6607,19 +6607,19 @@
         <v>6210</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2164</v>
+        <v>2091</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12992</v>
+        <v>12365</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005494382015336209</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001914915120943003</v>
+        <v>0.001850456403285145</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01149496371059047</v>
+        <v>0.0109407341170745</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -6628,19 +6628,19 @@
         <v>38173</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>27058</v>
+        <v>27384</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>52694</v>
+        <v>52755</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01226862124682</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008696398831012439</v>
+        <v>0.00880114899556053</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01693567000448033</v>
+        <v>0.01695520910173678</v>
       </c>
     </row>
     <row r="29">
@@ -6657,19 +6657,19 @@
         <v>1949273</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1937254</v>
+        <v>1937352</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1959740</v>
+        <v>1959465</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9838669517661537</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9778005629865666</v>
+        <v>0.9778502009276769</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9891502918662934</v>
+        <v>0.9890113556062919</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1075</v>
@@ -6678,19 +6678,19 @@
         <v>1124004</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1117222</v>
+        <v>1117849</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1128050</v>
+        <v>1128123</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9945056179846637</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9885050362894087</v>
+        <v>0.9890592658829256</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9980850848790567</v>
+        <v>0.9981495435967148</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2918</v>
@@ -6699,19 +6699,19 @@
         <v>3073277</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3058756</v>
+        <v>3058695</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3084392</v>
+        <v>3084066</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.98773137875318</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9830643299955196</v>
+        <v>0.9830447908982629</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9913036011689874</v>
+        <v>0.9911988510044395</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>4615</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1951</v>
+        <v>2030</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8716</v>
+        <v>9014</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02463996567820762</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0104175812701061</v>
+        <v>0.01083693654238558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04652999870213133</v>
+        <v>0.04812087164121356</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4018</v>
+        <v>3230</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01198812745145931</v>
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04503724330052858</v>
+        <v>0.03620530813553414</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -7427,19 +7427,19 @@
         <v>5685</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2667</v>
+        <v>2570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10708</v>
+        <v>10525</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0205582920845012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009644229842092629</v>
+        <v>0.009294887335345777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03872478484200035</v>
+        <v>0.03806187764414995</v>
       </c>
     </row>
     <row r="11">
@@ -7456,19 +7456,19 @@
         <v>182698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178597</v>
+        <v>178299</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>185362</v>
+        <v>185283</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9753600343217923</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9534700012978684</v>
+        <v>0.9518791283587864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9895824187298937</v>
+        <v>0.9891630634576144</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -7477,7 +7477,7 @@
         <v>88142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85193</v>
+        <v>85981</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>89211</v>
@@ -7486,7 +7486,7 @@
         <v>0.9880118725485406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9549627566994711</v>
+        <v>0.9637946918644659</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -7498,19 +7498,19 @@
         <v>270838</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>265815</v>
+        <v>265998</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>273856</v>
+        <v>273953</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9794417079154987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9612752151579993</v>
+        <v>0.96193812235585</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9903557701579073</v>
+        <v>0.990705112664654</v>
       </c>
     </row>
     <row r="12">
@@ -7602,19 +7602,19 @@
         <v>2355</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7073</v>
+        <v>6608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01157798103971238</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003347714112677761</v>
+        <v>0.003196265244306647</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03476780829911717</v>
+        <v>0.0324838399952121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3240</v>
+        <v>3582</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00707498266984749</v>
@@ -7635,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02341640570510514</v>
+        <v>0.02588589065256811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -7644,19 +7644,19 @@
         <v>3334</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1121</v>
+        <v>1143</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7464</v>
+        <v>7301</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.009755104496644145</v>
+        <v>0.009755104496644143</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003279418240243762</v>
+        <v>0.003344341851403389</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0218367911296928</v>
+        <v>0.02135936780826073</v>
       </c>
     </row>
     <row r="14">
@@ -7673,19 +7673,19 @@
         <v>201081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>196363</v>
+        <v>196828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>202755</v>
+        <v>202786</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9884220189602877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.965232191700883</v>
+        <v>0.9675161600047879</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9966522858873221</v>
+        <v>0.9968037347556934</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>178</v>
@@ -7694,7 +7694,7 @@
         <v>137387</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>135126</v>
+        <v>134784</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>138366</v>
@@ -7703,7 +7703,7 @@
         <v>0.9929250173301526</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9765835942948946</v>
+        <v>0.9741141093474305</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -7715,19 +7715,19 @@
         <v>338468</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>334338</v>
+        <v>334501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>340681</v>
+        <v>340659</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9902448955033558</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9781632088703071</v>
+        <v>0.9786406321917391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9967205817597563</v>
+        <v>0.9966556581485967</v>
       </c>
     </row>
     <row r="15">
@@ -7835,16 +7835,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01043608217614646</v>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="17">
@@ -7895,7 +7895,7 @@
         <v>10376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8388</v>
+        <v>8653</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>10845</v>
@@ -7904,7 +7904,7 @@
         <v>0.9567126343998554</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7734044365956327</v>
+        <v>0.7978855759162851</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -7916,16 +7916,16 @@
         <v>44513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42594</v>
+        <v>42150</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>44982</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9895639178238534</v>
+        <v>0.9895639178238536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9469127490655411</v>
+        <v>0.9370352286524489</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -8020,19 +8020,19 @@
         <v>2900</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6865</v>
+        <v>7584</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01779341834490675</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004938623316895345</v>
+        <v>0.004840446544671266</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04212482633730503</v>
+        <v>0.04653436265333573</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -8041,19 +8041,19 @@
         <v>2231</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6287</v>
+        <v>6207</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02272334166512192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005581450400035186</v>
+        <v>0.00557485496717549</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06402643089175027</v>
+        <v>0.0632151330576879</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -8062,19 +8062,19 @@
         <v>5131</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2033</v>
+        <v>2073</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10405</v>
+        <v>10234</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01964697644747438</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007783710021133856</v>
+        <v>0.007936495232280374</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03984115752139494</v>
+        <v>0.03918469970606087</v>
       </c>
     </row>
     <row r="20">
@@ -8091,19 +8091,19 @@
         <v>160073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156108</v>
+        <v>155389</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162168</v>
+        <v>162184</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9822065816550931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9578751736626949</v>
+        <v>0.9534656373466645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9950613766831048</v>
+        <v>0.9951595534553288</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -8112,19 +8112,19 @@
         <v>95963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91907</v>
+        <v>91987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>97646</v>
+        <v>97647</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9772766583348782</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9359735691082509</v>
+        <v>0.9367848669423112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9944185495999649</v>
+        <v>0.9944251450328244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>352</v>
@@ -8133,19 +8133,19 @@
         <v>256036</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>250762</v>
+        <v>250933</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>259134</v>
+        <v>259094</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9803530235525256</v>
+        <v>0.9803530235525257</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9601588424786051</v>
+        <v>0.9608153002939391</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.992216289978866</v>
+        <v>0.9920635047677193</v>
       </c>
     </row>
     <row r="21">
@@ -8237,19 +8237,19 @@
         <v>6995</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2974</v>
+        <v>3080</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13926</v>
+        <v>14165</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02000221775166459</v>
+        <v>0.0200022177516646</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008504378489454368</v>
+        <v>0.008808054092591383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03982107690062073</v>
+        <v>0.04050542489168833</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -8258,19 +8258,19 @@
         <v>6869</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2223</v>
+        <v>2162</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16198</v>
+        <v>17071</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02922240827316195</v>
+        <v>0.02922240827316194</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009455601096762661</v>
+        <v>0.009195985628105753</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06891192119640384</v>
+        <v>0.0726270102615979</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -8279,19 +8279,19 @@
         <v>13864</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6431</v>
+        <v>6782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25452</v>
+        <v>24588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02370839380273069</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01099813299402475</v>
+        <v>0.01159823742968452</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04352667424058445</v>
+        <v>0.04204839056147626</v>
       </c>
     </row>
     <row r="23">
@@ -8308,19 +8308,19 @@
         <v>342710</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>335779</v>
+        <v>335540</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>346731</v>
+        <v>346625</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9799977822483353</v>
+        <v>0.9799977822483356</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9601789230993798</v>
+        <v>0.9594945751083116</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9914956215105457</v>
+        <v>0.9911919459074084</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>283</v>
@@ -8329,19 +8329,19 @@
         <v>228181</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>218852</v>
+        <v>217979</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>232827</v>
+        <v>232888</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9707775917268382</v>
+        <v>0.970777591726838</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.931088078803596</v>
+        <v>0.9273729897384021</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9905443989032374</v>
+        <v>0.9908040143718944</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>567</v>
@@ -8350,19 +8350,19 @@
         <v>570891</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>559303</v>
+        <v>560167</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>578324</v>
+        <v>577973</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9762916061972692</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9564733257594156</v>
+        <v>0.9579516094385236</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9890018670059753</v>
+        <v>0.9884017625703155</v>
       </c>
     </row>
     <row r="24">
@@ -8454,19 +8454,19 @@
         <v>3018</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8513</v>
+        <v>8995</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.009602736959955638</v>
+        <v>0.00960273695995564</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002337975454151328</v>
+        <v>0.002310864728737544</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02708104151459367</v>
+        <v>0.02861440427942686</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -8488,19 +8488,19 @@
         <v>3018</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8475</v>
+        <v>9142</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007031348952966991</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001714243122156143</v>
+        <v>0.001721611207456219</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01974138335632098</v>
+        <v>0.02129630370896501</v>
       </c>
     </row>
     <row r="26">
@@ -8517,19 +8517,19 @@
         <v>311318</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>305823</v>
+        <v>305341</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>313601</v>
+        <v>313610</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9903972630400443</v>
+        <v>0.9903972630400445</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9729189584854065</v>
+        <v>0.9713855957205736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9976620245458485</v>
+        <v>0.9976891352712624</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -8551,19 +8551,19 @@
         <v>426271</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>420814</v>
+        <v>420147</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>428553</v>
+        <v>428550</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9929686510470329</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9802586166436794</v>
+        <v>0.9787036962910349</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9982857568778438</v>
+        <v>0.9982783887925436</v>
       </c>
     </row>
     <row r="27">
@@ -8655,19 +8655,19 @@
         <v>19884</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13036</v>
+        <v>12348</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>29287</v>
+        <v>29638</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01183210568081937</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007756922608885372</v>
+        <v>0.007347989404332811</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01742727797994687</v>
+        <v>0.01763653451445413</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -8676,19 +8676,19 @@
         <v>11618</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5750</v>
+        <v>5281</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23718</v>
+        <v>21233</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01281287004242174</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006341186129824283</v>
+        <v>0.005824101523974954</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0261580429546209</v>
+        <v>0.02341685692354535</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -8697,19 +8697,19 @@
         <v>31502</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22034</v>
+        <v>21192</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44359</v>
+        <v>43969</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01217582747340473</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008516395485283866</v>
+        <v>0.008191063477085071</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01714540060837011</v>
+        <v>0.01699467884024447</v>
       </c>
     </row>
     <row r="29">
@@ -8726,19 +8726,19 @@
         <v>1660625</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1651222</v>
+        <v>1650871</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1667473</v>
+        <v>1668161</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9881678943191807</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.982572722020053</v>
+        <v>0.9823634654855458</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9922430773911146</v>
+        <v>0.9926520105956671</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1193</v>
@@ -8747,19 +8747,19 @@
         <v>895115</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>883015</v>
+        <v>885500</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>900983</v>
+        <v>901452</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9871871299575782</v>
+        <v>0.9871871299575783</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9738419570453789</v>
+        <v>0.9765831430764543</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9936588138701756</v>
+        <v>0.9941758984760249</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2756</v>
@@ -8768,19 +8768,19 @@
         <v>2555740</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2542883</v>
+        <v>2543273</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2565208</v>
+        <v>2566050</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9878241725265953</v>
+        <v>0.9878241725265952</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9828545993916299</v>
+        <v>0.9830053211597554</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9914836045147161</v>
+        <v>0.9918089365229148</v>
       </c>
     </row>
     <row r="30">
